--- a/data/00-raw-data/longcovid_uk.xlsx
+++ b/data/00-raw-data/longcovid_uk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shchinthak/Desktop/Georgetown/my-website/data/00-raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9715578A-A6DB-AE4D-8ED4-A4163399AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039CEC2A-6149-6B47-8EF5-039E14BFCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1784,7 +1784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1839,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681A2179-B0CE-494D-ABCD-36F8A340CFE4}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -26798,7 +26800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C2A762-78EB-4FC0-B714-AEDFDECD3D71}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28885,7 +28887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4F9B06-83E4-4265-A038-641A922C4FBC}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49138,7 +49140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9235BC-0D3D-49D0-AC2F-E7BE2BCE726F}">
   <dimension ref="A1:G720"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -63516,6 +63520,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
+    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Change Log</SectionName>
+    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">5028</ReferenceId>
+    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-1398</TrackerId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366FE8C85E70484CA6E47CDF031DEDC1" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48954b20434f995ee8a3619264da273c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e572c8d-6813-4013-8a4a-be491ac59459" xmlns:ns3="96a98433-1569-4222-be80-afd48d89a184" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca36865e48708c1a88d13014009112cc" ns2:_="" ns3:_="">
     <xsd:import namespace="1e572c8d-6813-4013-8a4a-be491ac59459"/>
@@ -63772,32 +63801,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93D7FED-DF8F-45B7-950D-57A3F5A80A0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8c8f639-c9ea-4749-8d51-636394457cba"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7a5dc178-1901-4a4d-8140-8b9f11a6098f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
+    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
-    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Change Log</SectionName>
-    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">5028</ReferenceId>
-    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-1398</TrackerId>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AABB0145-B235-4EFC-B7EF-CDF2EC815867}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AC4669E-0A33-4DEA-9FC6-7D27964BCBC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63814,31 +63845,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AABB0145-B235-4EFC-B7EF-CDF2EC815867}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93D7FED-DF8F-45B7-950D-57A3F5A80A0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8c8f639-c9ea-4749-8d51-636394457cba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7a5dc178-1901-4a4d-8140-8b9f11a6098f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
-    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>